--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T12:30:17+00:00</t>
+    <t>2025-03-25T12:34:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T12:34:21+00:00</t>
+    <t>2025-03-25T12:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T12:47:29+00:00</t>
+    <t>2025-03-25T12:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T12:47:44+00:00</t>
+    <t>2025-03-31T14:08:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-31T14:08:18+00:00</t>
+    <t>2025-04-11T07:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$75</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:26:01+00:00</t>
+    <t>2025-08-29T09:13:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -426,33 +429,61 @@
     <t>Encounter.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Encounter.extension:nprEpisodeIdentifier</t>
+  </si>
+  <si>
+    <t>nprEpisodeIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/npr-episode-identifier}
+</t>
+  </si>
+  <si>
+    <t>Unik identifikator(er) for episoden, som brukes ved rapportering til NPR</t>
+  </si>
+  <si>
+    <t>En eller flere unike identifikatorer (string og/eller UUID) som identifiserer episoden entydig i helseinstitusjonens systemer. Brukes ved rapportering til Norsk pasientregister (NPR). Kan inneholde både string-basert og UUID-basert identifikator samtidig.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}npr-episode-at-least-one:Minst én NPR episode identifikator (string eller UUID) må oppgis {extension('stringIdentifier').exists() or extension('uuidIdentifier').exists()}</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -460,6 +491,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -560,6 +594,9 @@
   </si>
   <si>
     <t>Encounter.statusHistory.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1577,6 +1614,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1761,7 +1813,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AN75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1770,17 +1822,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.16015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.16015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.7890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.65625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.86328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1789,26 +1841,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.65625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.00390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.2265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="92.67578125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="191.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="79.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="163.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1933,7 +1985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2045,7 +2097,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
@@ -2159,7 +2211,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -2271,7 +2323,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -2385,7 +2437,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -2499,7 +2551,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -2613,7 +2665,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2727,7 +2779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>132</v>
       </c>
@@ -2736,7 +2788,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2755,17 +2807,15 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -2802,16 +2852,14 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2832,7 +2880,7 @@
         <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>80</v>
@@ -2841,48 +2889,46 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
       </c>
@@ -2930,7 +2976,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2939,16 +2985,16 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>80</v>
@@ -2957,16 +3003,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2979,22 +3025,26 @@
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3042,7 +3092,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3054,27 +3104,27 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3082,32 +3132,30 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
@@ -3132,13 +3180,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -3156,13 +3204,13 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>80</v>
@@ -3171,24 +3219,24 @@
         <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM12" t="s" s="2">
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AN12" t="s" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3196,31 +3244,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3246,13 +3294,13 @@
         <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>80</v>
@@ -3270,13 +3318,13 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
@@ -3285,24 +3333,24 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3313,7 +3361,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -3325,15 +3373,17 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3382,25 +3432,25 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
@@ -3409,23 +3459,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3437,17 +3487,15 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -3496,25 +3544,25 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -3523,16 +3571,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3545,26 +3593,24 @@
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3612,7 +3658,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3630,7 +3676,7 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -3639,44 +3685,48 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3700,13 +3750,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3724,25 +3774,25 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
@@ -3751,12 +3801,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3779,13 +3829,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3812,13 +3862,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -3836,7 +3886,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>88</v>
@@ -3854,7 +3904,7 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -3863,12 +3913,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3888,16 +3938,16 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3924,31 +3974,31 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>88</v>
@@ -3966,16 +4016,16 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>198</v>
       </c>
@@ -3988,10 +4038,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -4000,16 +4050,16 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4036,13 +4086,13 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -4063,10 +4113,10 @@
         <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -4078,21 +4128,21 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4103,7 +4153,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4115,13 +4165,13 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4172,25 +4222,25 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4199,23 +4249,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4227,17 +4277,15 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4286,25 +4334,25 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4313,16 +4361,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4335,26 +4383,24 @@
         <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4402,7 +4448,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4420,7 +4466,7 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4429,44 +4475,48 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4490,49 +4540,49 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="AG24" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4541,12 +4591,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4569,13 +4619,13 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4602,13 +4652,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4626,7 +4676,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>88</v>
@@ -4644,7 +4694,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4653,12 +4703,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4666,10 +4716,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4678,20 +4728,18 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4716,37 +4764,37 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
@@ -4755,24 +4803,24 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
         <v>220</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="B27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4795,7 +4843,7 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>222</v>
@@ -4803,7 +4851,9 @@
       <c r="M27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -4828,13 +4878,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -4852,13 +4902,13 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
@@ -4867,24 +4917,24 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4904,16 +4954,16 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4940,13 +4990,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -4964,7 +5014,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4979,28 +5029,28 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5016,20 +5066,18 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N29" t="s" s="2">
         <v>239</v>
       </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5054,13 +5102,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5078,7 +5126,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5093,7 +5141,7 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>241</v>
@@ -5105,7 +5153,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>244</v>
       </c>
@@ -5114,7 +5162,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5133,15 +5181,17 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5196,7 +5246,7 @@
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5205,28 +5255,28 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5242,16 +5292,16 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5302,7 +5352,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5317,28 +5367,28 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5354,16 +5404,16 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>165</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5414,7 +5464,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5429,24 +5479,24 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5457,7 +5507,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5466,16 +5516,16 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>172</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5526,50 +5576,50 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5581,17 +5631,15 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5640,25 +5688,25 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5667,16 +5715,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5689,26 +5737,24 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5756,7 +5802,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5774,7 +5820,7 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -5783,16 +5829,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5805,24 +5851,26 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5846,31 +5894,31 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5882,27 +5930,27 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5913,7 +5961,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -5922,18 +5970,20 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -5958,13 +6008,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -5982,13 +6032,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -5997,24 +6047,24 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6034,16 +6084,16 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6094,7 +6144,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6109,24 +6159,24 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6137,7 +6187,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6149,13 +6199,13 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6206,13 +6256,13 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -6221,24 +6271,24 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6258,20 +6308,18 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6320,13 +6368,13 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
@@ -6335,24 +6383,24 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6375,16 +6423,16 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6434,7 +6482,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6449,28 +6497,28 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6486,19 +6534,19 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>211</v>
+        <v>313</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6524,13 +6572,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -6548,13 +6596,13 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
@@ -6563,28 +6611,28 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>317</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AN42" t="s" s="2">
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
         <v>319</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="B43" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6603,16 +6651,16 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="N43" t="s" s="2">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6638,13 +6686,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -6662,7 +6710,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6677,28 +6725,28 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6717,15 +6765,17 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>165</v>
+        <v>331</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -6774,7 +6824,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6789,24 +6839,24 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6817,7 +6867,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -6826,16 +6876,16 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>172</v>
+        <v>334</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>173</v>
+        <v>335</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6886,25 +6936,25 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>174</v>
+        <v>333</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>169</v>
+        <v>336</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -6913,23 +6963,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -6941,17 +6991,15 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7000,25 +7048,25 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7027,16 +7075,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7049,26 +7097,24 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7116,7 +7162,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7134,7 +7180,7 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7143,46 +7189,48 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>331</v>
+        <v>189</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>332</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>333</v>
+        <v>190</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>334</v>
+        <v>191</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7230,47 +7278,47 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>330</v>
+        <v>192</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>336</v>
+        <v>131</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>88</v>
@@ -7282,18 +7330,20 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>211</v>
+        <v>342</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7318,13 +7368,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7342,10 +7392,10 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>88</v>
@@ -7357,24 +7407,24 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>169</v>
+        <v>346</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7397,13 +7447,13 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>344</v>
+        <v>221</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7430,13 +7480,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7454,7 +7504,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7472,7 +7522,7 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>347</v>
+        <v>178</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7481,12 +7531,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7497,7 +7547,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7509,17 +7559,15 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7568,13 +7616,13 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
@@ -7586,7 +7634,7 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7595,12 +7643,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7623,16 +7671,16 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>165</v>
+        <v>359</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7682,13 +7730,13 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
@@ -7700,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -7709,12 +7757,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7725,7 +7773,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -7737,15 +7785,17 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>172</v>
+        <v>365</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -7794,7 +7844,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>174</v>
+        <v>364</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7806,13 +7856,13 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>169</v>
+        <v>368</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -7821,23 +7871,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -7849,17 +7899,15 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -7908,25 +7956,25 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -7935,16 +7983,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7957,26 +8005,24 @@
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8024,7 +8070,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8042,7 +8088,7 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8051,44 +8097,48 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>363</v>
+        <v>190</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8136,39 +8186,39 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>362</v>
+        <v>192</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8191,13 +8241,13 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8248,7 +8298,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8266,21 +8316,21 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>370</v>
+        <v>159</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8303,13 +8353,13 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>211</v>
+        <v>377</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8336,13 +8386,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8360,7 +8410,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8378,21 +8428,21 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8415,13 +8465,13 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8448,31 +8498,31 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8490,21 +8540,21 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>169</v>
+        <v>386</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8515,7 +8565,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8527,20 +8577,16 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8564,13 +8610,13 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -8588,13 +8634,13 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -8606,21 +8652,21 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>391</v>
+        <v>178</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8643,16 +8689,20 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8676,13 +8726,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -8700,7 +8750,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8718,21 +8768,21 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8755,13 +8805,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8791,28 +8841,28 @@
         <v>112</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8830,21 +8880,21 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8855,7 +8905,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -8867,13 +8917,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>367</v>
+        <v>221</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8900,13 +8950,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -8924,13 +8974,13 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
@@ -8942,21 +8992,21 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8979,13 +9029,13 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>211</v>
+        <v>377</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9012,13 +9062,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9036,7 +9086,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9054,21 +9104,21 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9079,7 +9129,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9091,17 +9141,15 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9126,13 +9174,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>425</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9150,13 +9198,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -9168,21 +9216,21 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9193,7 +9241,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9205,15 +9253,17 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>172</v>
+        <v>430</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9262,25 +9312,25 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>174</v>
+        <v>429</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>169</v>
+        <v>433</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9289,23 +9339,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9317,17 +9367,15 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9376,25 +9424,25 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9403,16 +9451,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9425,26 +9473,24 @@
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9492,7 +9538,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9510,7 +9556,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -9519,44 +9565,48 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>428</v>
+        <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>429</v>
+        <v>190</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -9604,39 +9654,39 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>427</v>
+        <v>192</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>285</v>
+        <v>131</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>433</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9644,7 +9694,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>
@@ -9659,17 +9709,15 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>108</v>
+        <v>438</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -9694,13 +9742,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>438</v>
+        <v>80</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -9718,10 +9766,10 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>88</v>
@@ -9733,24 +9781,24 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>440</v>
+        <v>295</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>80</v>
+        <v>443</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9773,16 +9821,16 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9808,13 +9856,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -9832,7 +9880,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9850,7 +9898,7 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -9859,12 +9907,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9887,15 +9935,17 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -9920,13 +9970,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -9944,7 +9994,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9962,7 +10012,7 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -9971,12 +10021,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9999,13 +10049,13 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>451</v>
+        <v>195</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10056,7 +10106,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10071,24 +10121,24 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>454</v>
+        <v>288</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10099,7 +10149,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10111,17 +10161,15 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10170,7 +10218,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10185,19 +10233,151 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>461</v>
+        <v>294</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN75">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI74">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:13:21+00:00</t>
+    <t>2025-09-12T12:54:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -368,7 +368,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -727,7 +727,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -751,7 +751,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -785,7 +785,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
 </t>
   </si>
   <si>
@@ -813,7 +813,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -839,7 +839,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -894,7 +894,7 @@
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -924,7 +924,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -949,7 +949,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment)
+    <t xml:space="preserve">Reference(Appointment|4.0.1)
 </t>
   </si>
   <si>
@@ -1030,7 +1030,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1048,7 +1048,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1083,7 +1083,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1114,7 +1114,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1136,7 +1136,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(Account|4.0.1)
 </t>
   </si>
   <si>
@@ -1193,7 +1193,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|Organization)
+    <t xml:space="preserve">Reference(Location|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1218,7 +1218,7 @@
     <t>From where the patient was admitted.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source|4.0.1</t>
   </si>
   <si>
     <t>.admissionReferralSourceCode</t>
@@ -1263,7 +1263,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1284,7 +1284,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1305,7 +1305,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1341,7 +1341,7 @@
     <t>Discharge Disposition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition|4.0.1</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -1377,7 +1377,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1433,7 +1433,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -1467,7 +1467,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1832,7 +1832,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="62.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1847,7 +1847,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.00390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.2265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T12:54:49+00:00</t>
+    <t>2025-09-12T13:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:01:34+00:00</t>
+    <t>2025-09-12T13:06:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:06:36+00:00</t>
+    <t>2025-09-13T17:40:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-13T17:40:53+00:00</t>
+    <t>2025-10-07T11:54:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2889,7 +2889,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -10361,12 +10361,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN75">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:54:58+00:00</t>
+    <t>2025-10-12T08:57:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-12T08:57:38+00:00</t>
+    <t>2025-10-12T09:19:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-12T09:19:49+00:00</t>
+    <t>2025-10-17T18:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T18:23:46+00:00</t>
+    <t>2025-10-17T18:45:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T18:45:29+00:00</t>
+    <t>2025-10-17T18:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T18:58:39+00:00</t>
+    <t>2025-10-18T06:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T06:27:30+00:00</t>
+    <t>2025-10-18T06:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T06:37:01+00:00</t>
+    <t>2025-10-18T06:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T06:49:50+00:00</t>
+    <t>2025-11-06T09:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T09:39:43+00:00</t>
+    <t>2025-11-06T09:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T09:59:39+00:00</t>
+    <t>2025-11-24T09:13:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:13:45+00:00</t>
+    <t>2025-11-25T12:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-encounter.xlsx
+++ b/StructureDefinition-lmdi-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T12:27:52+00:00</t>
+    <t>2026-02-05T09:35:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
